--- a/medicine/Psychotrope/Sec_(propriété_de_l'alcool)/Sec_(propriété_de_l'alcool).xlsx
+++ b/medicine/Psychotrope/Sec_(propriété_de_l'alcool)/Sec_(propriété_de_l'alcool).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sec_(propri%C3%A9t%C3%A9_de_l%27alcool)</t>
+          <t>Sec_(propriété_de_l'alcool)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La « sécheresse » d'une boisson caractérise le faible taux de goût sucré, de douceur d'une boisson alcoolisée. Cela peut être dû à la présence d'autres saveurs qui masquent la douceur, ou à un faible taux de glucides simples pouvant être convertis en sucre par des enzymes dans la bouche (amylase en particulier). Le terme « sec » (ou dry en anglais) peut être employé pour tout type d'alcool : bière, vin, spiritueux, ou toute autre forme de boisson alcoolisée.
 Pour décrire les niveaux de sécheresse d'un alcool, on utilise les termes : sec, demi-sec, moelleux, liquoreux ou encore « triple sec » (mais généralement, ce terme désigne une liqueur d'oranges amères). On utilise parfois également l'adjectif « doux », mais il convient de ne pas le confondre avec les vins doux naturels (mutés).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sec_(propri%C3%A9t%C3%A9_de_l%27alcool)</t>
+          <t>Sec_(propriété_de_l'alcool)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Réglementation communautaire sur les qualificatifs de sécheresse des vins tranquilles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réglementation européenne impose les fourchettes de taux de sucre résiduel en bouteille selon les appellations relatives à la sucrosité des vins tranquilles. À noter que les vins effervescents, comme les champagnes et crémants, ont une échelle spécifique pour qualifier leur douceur (voir dosage).
 </t>
